--- a/Config/Achieve.xlsx
+++ b/Config/Achieve.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28455" windowHeight="12030"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="698">
   <si>
     <t>id</t>
   </si>
@@ -2491,12 +2491,44 @@
     <t>{pass_dungeon, 1, 7}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>as11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{string:string}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005:噶,1012:阿斯蒂芬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringarr</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计费看了,速度快放假啊看见,神雕房介</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2980,17 +3012,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
@@ -3002,10 +3034,12 @@
     <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="38.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="21.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3039,8 +3073,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3074,8 +3114,14 @@
       <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -3109,8 +3155,14 @@
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -3144,8 +3196,14 @@
       <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
@@ -3176,8 +3234,14 @@
       <c r="K5" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
@@ -3209,7 +3273,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
@@ -3241,7 +3305,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
@@ -3273,7 +3337,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
@@ -3305,7 +3369,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
@@ -3337,7 +3401,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>1006</v>
       </c>
@@ -3369,7 +3433,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>1007</v>
       </c>
@@ -3401,7 +3465,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>1008</v>
       </c>
@@ -3433,7 +3497,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>1009</v>
       </c>
@@ -3465,7 +3529,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>1010</v>
       </c>
@@ -3497,7 +3561,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>1011</v>
       </c>
@@ -3529,7 +3593,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>1012</v>
       </c>
@@ -3561,7 +3625,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>1013</v>
       </c>
@@ -3593,7 +3657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>1014</v>
       </c>
@@ -3625,7 +3689,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>1015</v>
       </c>
@@ -3657,7 +3721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3688,8 +3752,9 @@
       <c r="K21" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -3720,8 +3785,9 @@
       <c r="K22" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -3752,8 +3818,9 @@
       <c r="K23" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -3785,7 +3852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -3817,7 +3884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3849,7 +3916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -3881,7 +3948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -3913,7 +3980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -3945,7 +4012,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3977,7 +4044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
@@ -4009,7 +4076,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -4041,7 +4108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -4073,7 +4140,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -4105,7 +4172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -4137,7 +4204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -4169,7 +4236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -4201,7 +4268,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -4233,7 +4300,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -4265,7 +4332,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
@@ -4297,7 +4364,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
@@ -4329,7 +4396,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -4361,7 +4428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" s="8" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>298</v>
       </c>
@@ -4393,7 +4460,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" s="8" customFormat="1">
       <c r="A44" s="9" t="s">
         <v>369</v>
       </c>
@@ -4425,7 +4492,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" s="8" customFormat="1">
       <c r="A45" s="7" t="s">
         <v>299</v>
       </c>
@@ -4457,7 +4524,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" s="8" customFormat="1">
       <c r="A46" s="9" t="s">
         <v>370</v>
       </c>
@@ -4489,7 +4556,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" s="8" customFormat="1">
       <c r="A47" s="9" t="s">
         <v>371</v>
       </c>
@@ -4521,7 +4588,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" s="8" customFormat="1">
       <c r="A48" s="9" t="s">
         <v>456</v>
       </c>
@@ -4553,7 +4620,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A49" s="5" t="s">
         <v>372</v>
       </c>
@@ -4585,7 +4652,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A50" s="5" t="s">
         <v>374</v>
       </c>
@@ -4617,7 +4684,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A51" s="5" t="s">
         <v>375</v>
       </c>
@@ -4649,7 +4716,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A52" s="5" t="s">
         <v>376</v>
       </c>
@@ -4681,7 +4748,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A53" s="5" t="s">
         <v>377</v>
       </c>
@@ -4713,7 +4780,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A54" s="5" t="s">
         <v>378</v>
       </c>
@@ -4745,7 +4812,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A55" s="5" t="s">
         <v>380</v>
       </c>
@@ -4777,7 +4844,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A56" s="5" t="s">
         <v>381</v>
       </c>
@@ -4809,7 +4876,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A57" s="5" t="s">
         <v>382</v>
       </c>
@@ -4841,7 +4908,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A58" s="5" t="s">
         <v>383</v>
       </c>
@@ -4873,7 +4940,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A59" s="5" t="s">
         <v>384</v>
       </c>
@@ -4905,7 +4972,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A60" s="5" t="s">
         <v>385</v>
       </c>
@@ -4937,7 +5004,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A61" s="5" t="s">
         <v>386</v>
       </c>
@@ -4969,7 +5036,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A62" s="5" t="s">
         <v>387</v>
       </c>
@@ -5001,7 +5068,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A63" s="5" t="s">
         <v>388</v>
       </c>
@@ -5033,7 +5100,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A64" s="5" t="s">
         <v>389</v>
       </c>
@@ -5065,7 +5132,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A65" s="5" t="s">
         <v>390</v>
       </c>
@@ -5097,7 +5164,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A66" s="5" t="s">
         <v>391</v>
       </c>
@@ -5129,7 +5196,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A67" s="5" t="s">
         <v>392</v>
       </c>
@@ -5161,7 +5228,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A68" s="5" t="s">
         <v>393</v>
       </c>
@@ -5193,7 +5260,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A69" s="5" t="s">
         <v>394</v>
       </c>
@@ -5225,7 +5292,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A70" s="5" t="s">
         <v>395</v>
       </c>
@@ -5257,7 +5324,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A71" s="5" t="s">
         <v>396</v>
       </c>
@@ -5289,7 +5356,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A72" s="5" t="s">
         <v>397</v>
       </c>
@@ -5321,7 +5388,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A73" s="5" t="s">
         <v>398</v>
       </c>
@@ -5353,7 +5420,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A74" s="5" t="s">
         <v>399</v>
       </c>
@@ -5385,7 +5452,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A75" s="5" t="s">
         <v>400</v>
       </c>
@@ -5417,7 +5484,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A76" s="5" t="s">
         <v>401</v>
       </c>
@@ -5449,7 +5516,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A77" s="5" t="s">
         <v>402</v>
       </c>
@@ -5481,7 +5548,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A78" s="5" t="s">
         <v>403</v>
       </c>
@@ -5513,7 +5580,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A79" s="5" t="s">
         <v>404</v>
       </c>
@@ -5545,7 +5612,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A80" s="5" t="s">
         <v>405</v>
       </c>
@@ -5577,7 +5644,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" s="4" customFormat="1" ht="14.25">
       <c r="A81" s="5" t="s">
         <v>406</v>
       </c>
@@ -5609,7 +5676,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>126</v>
       </c>
@@ -5641,7 +5708,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
         <v>133</v>
       </c>
@@ -5673,7 +5740,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>137</v>
       </c>
@@ -5705,7 +5772,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>140</v>
       </c>
@@ -5737,7 +5804,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>144</v>
       </c>
@@ -5769,7 +5836,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
         <v>148</v>
       </c>
@@ -5801,7 +5868,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
         <v>154</v>
       </c>
@@ -5833,7 +5900,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
         <v>157</v>
       </c>
@@ -5865,7 +5932,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
         <v>160</v>
       </c>
@@ -5897,7 +5964,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
         <v>163</v>
       </c>
@@ -5929,7 +5996,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
         <v>166</v>
       </c>
@@ -5961,7 +6028,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
         <v>169</v>
       </c>
@@ -5993,7 +6060,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>174</v>
       </c>
@@ -6025,7 +6092,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
         <v>177</v>
       </c>
@@ -6057,7 +6124,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
         <v>180</v>
       </c>
@@ -6089,7 +6156,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
         <v>183</v>
       </c>
@@ -6121,7 +6188,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
         <v>186</v>
       </c>
@@ -6153,7 +6220,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
         <v>192</v>
       </c>
@@ -6185,7 +6252,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
         <v>195</v>
       </c>
@@ -6217,7 +6284,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
         <v>198</v>
       </c>
@@ -6249,7 +6316,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
         <v>201</v>
       </c>
@@ -6281,7 +6348,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -6313,7 +6380,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
         <v>210</v>
       </c>
@@ -6345,7 +6412,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
         <v>213</v>
       </c>
@@ -6377,7 +6444,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11">
       <c r="A106" s="1" t="s">
         <v>216</v>
       </c>
@@ -6409,7 +6476,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11">
       <c r="A107" s="1" t="s">
         <v>219</v>
       </c>
@@ -6441,7 +6508,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11">
       <c r="A108" s="1" t="s">
         <v>222</v>
       </c>
@@ -6473,7 +6540,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11">
       <c r="A109" s="1" t="s">
         <v>226</v>
       </c>
@@ -6505,7 +6572,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11">
       <c r="A110" s="1" t="s">
         <v>229</v>
       </c>
@@ -6537,7 +6604,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11">
       <c r="A111" s="1" t="s">
         <v>233</v>
       </c>
@@ -6569,7 +6636,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
         <v>236</v>
       </c>
@@ -6601,7 +6668,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
         <v>239</v>
       </c>
@@ -6633,7 +6700,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -6665,7 +6732,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
         <v>246</v>
       </c>
@@ -6697,7 +6764,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
         <v>249</v>
       </c>
@@ -6729,7 +6796,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
         <v>252</v>
       </c>
@@ -6761,7 +6828,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
         <v>255</v>
       </c>
@@ -6793,7 +6860,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
         <v>258</v>
       </c>
@@ -6825,7 +6892,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:11">
       <c r="A120" s="1" t="s">
         <v>263</v>
       </c>
@@ -6857,7 +6924,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:11">
       <c r="A121" s="1" t="s">
         <v>265</v>
       </c>
@@ -6889,7 +6956,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
         <v>267</v>
       </c>
@@ -6921,7 +6988,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:11">
       <c r="A123" s="1" t="s">
         <v>269</v>
       </c>
@@ -6953,7 +7020,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11">
       <c r="A124" s="1" t="s">
         <v>271</v>
       </c>
@@ -6985,7 +7052,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:11">
       <c r="A125" s="1" t="s">
         <v>277</v>
       </c>
@@ -7017,7 +7084,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11">
       <c r="A126" s="1" t="s">
         <v>280</v>
       </c>
@@ -7049,7 +7116,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11">
       <c r="A127" s="1" t="s">
         <v>283</v>
       </c>
@@ -7081,7 +7148,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11">
       <c r="A128" s="1" t="s">
         <v>289</v>
       </c>
@@ -7113,7 +7180,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11">
       <c r="A129" s="1" t="s">
         <v>292</v>
       </c>
@@ -7145,7 +7212,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11">
       <c r="A130" s="1" t="s">
         <v>294</v>
       </c>
@@ -7177,7 +7244,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11">
       <c r="A131" s="1" t="s">
         <v>296</v>
       </c>
@@ -7242,12 +7309,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7256,12 +7323,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
